--- a/IKing-HW3/data.xlsx
+++ b/IKing-HW3/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The Jabberwock\Documents\School\Grad\2020\Spring\RL\IKing-HW3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521FE3ED-9861-4B3C-94F5-DE4DABBF47AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675D69B4-39CA-42F7-BD42-0058A0AB6864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19206" yWindow="948" windowWidth="17280" windowHeight="8994" xr2:uid="{1CB36CAB-1BC9-4F31-8E8C-122943A4B0F6}"/>
+    <workbookView xWindow="14304" yWindow="3378" windowWidth="17280" windowHeight="8994" xr2:uid="{1CB36CAB-1BC9-4F31-8E8C-122943A4B0F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="6">
   <si>
     <t>Episode Length</t>
   </si>
@@ -44,13 +44,13 @@
     <t>INF</t>
   </si>
   <si>
-    <t>N/a</t>
-  </si>
-  <si>
     <t>Length of best path with epsilon 0.02</t>
   </si>
   <si>
     <t>Length of best path with epsilon 0.25</t>
+  </si>
+  <si>
+    <t>Length of best path with epsilon 0.50</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,12 +87,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -100,6 +94,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7D7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,17 +137,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,19 +151,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7D7D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -475,372 +487,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E41F177-BF81-4B61-9FE5-3E4A011D0FCF}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="11.20703125" customWidth="1"/>
+    <col min="7" max="7" width="5.05078125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="8">
+        <v>100</v>
+      </c>
+      <c r="K2" s="8">
+        <v>400</v>
+      </c>
+      <c r="L2" s="8">
+        <v>700</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>10000</v>
+      </c>
+      <c r="J3" s="6">
+        <v>40</v>
+      </c>
+      <c r="K3" s="6">
+        <v>44</v>
+      </c>
+      <c r="L3" s="15">
+        <v>154</v>
+      </c>
+      <c r="M3" s="15">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="13"/>
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="8">
+        <v>40000</v>
+      </c>
+      <c r="J4" s="7">
+        <v>50</v>
+      </c>
+      <c r="K4" s="6">
+        <v>41</v>
+      </c>
+      <c r="L4" s="6">
+        <v>42</v>
+      </c>
+      <c r="M4" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="13"/>
+      <c r="B5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="8">
+        <v>70000</v>
+      </c>
+      <c r="J5" s="6">
+        <v>43</v>
+      </c>
+      <c r="K5" s="6">
+        <v>40</v>
+      </c>
+      <c r="L5" s="6">
+        <v>48</v>
+      </c>
+      <c r="M5" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="13"/>
+      <c r="B6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>58</v>
+      </c>
+      <c r="E6" s="6">
+        <v>42</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J6" s="6">
+        <v>46</v>
+      </c>
+      <c r="K6" s="6">
+        <v>48</v>
+      </c>
+      <c r="L6" s="7">
+        <v>54</v>
+      </c>
+      <c r="M6" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="13"/>
+      <c r="B7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>55</v>
+      </c>
+      <c r="E7" s="6">
+        <v>46</v>
+      </c>
+      <c r="F7" s="7">
+        <v>55</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="5"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="12" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="13"/>
+      <c r="B12" s="1">
+        <v>100</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15">
+        <v>695</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="13"/>
+      <c r="B13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>216</v>
+      </c>
+      <c r="F13" s="15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="13"/>
+      <c r="B14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>66</v>
+      </c>
+      <c r="E14" s="7">
+        <v>95</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D17" s="1">
         <v>100</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E17" s="1">
         <v>1000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F17" s="1">
         <v>10000</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="14">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="15">
+        <v>770</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="15">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="13"/>
+      <c r="B19" s="1">
         <v>100</v>
       </c>
-      <c r="K2" s="14">
-        <v>400</v>
-      </c>
-      <c r="L2" s="14">
-        <v>700</v>
-      </c>
-      <c r="M2" s="14">
+      <c r="C19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15">
+        <v>596</v>
+      </c>
+      <c r="F19" s="15">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="13"/>
+      <c r="B20" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14">
+      <c r="C20" s="15">
+        <v>585</v>
+      </c>
+      <c r="D20" s="15">
+        <v>853</v>
+      </c>
+      <c r="E20" s="15">
+        <v>224</v>
+      </c>
+      <c r="F20" s="15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="13"/>
+      <c r="B21" s="1">
         <v>10000</v>
       </c>
-      <c r="J3" s="9">
-        <v>40</v>
-      </c>
-      <c r="K3" s="9">
-        <v>44</v>
-      </c>
-      <c r="L3" s="10">
-        <v>154</v>
-      </c>
-      <c r="M3" s="10">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4">
-        <v>100</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14">
-        <v>40000</v>
-      </c>
-      <c r="J4" s="11">
-        <v>50</v>
-      </c>
-      <c r="K4" s="9">
-        <v>41</v>
-      </c>
-      <c r="L4" s="9">
-        <v>42</v>
-      </c>
-      <c r="M4" s="11">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14">
-        <v>70000</v>
-      </c>
-      <c r="J5" s="9">
-        <v>43</v>
-      </c>
-      <c r="K5" s="9">
-        <v>40</v>
-      </c>
-      <c r="L5" s="9">
-        <v>48</v>
-      </c>
-      <c r="M5" s="9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11">
-        <v>58</v>
-      </c>
-      <c r="E6" s="9">
-        <v>42</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14">
-        <v>100000</v>
-      </c>
-      <c r="J6" s="9">
-        <v>46</v>
-      </c>
-      <c r="K6" s="9">
-        <v>48</v>
-      </c>
-      <c r="L6" s="11">
-        <v>54</v>
-      </c>
-      <c r="M6" s="11">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4">
-        <v>100000</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11">
-        <v>55</v>
-      </c>
-      <c r="E7" s="9">
-        <v>46</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4">
-        <v>100</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4">
-        <v>100</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11">
-        <v>94</v>
-      </c>
-      <c r="E13" s="11">
-        <v>216</v>
-      </c>
-      <c r="F13" s="11">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4">
-        <v>10000</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11">
-        <v>66</v>
-      </c>
-      <c r="E14" s="11">
-        <v>130</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4">
-        <v>100000</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11">
-        <v>65</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="11"/>
+      <c r="C21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="15">
+        <v>106</v>
+      </c>
+      <c r="E21" s="15">
+        <v>248</v>
+      </c>
+      <c r="F21" s="15">
+        <v>378</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="H1:I2"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
